--- a/public/templates/退货确认单.xlsx
+++ b/public/templates/退货确认单.xlsx
@@ -120,37 +120,39 @@
     <t>产品名称</t>
   </si>
   <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>条码</t>
+  </si>
+  <si>
+    <t>购买日期</t>
+  </si>
+  <si>
+    <t>￥</t>
+  </si>
+  <si>
+    <t>退货原因</t>
+  </si>
+  <si>
+    <t xml:space="preserve">情况说明（物流部）:    </t>
+  </si>
+  <si>
+    <t>营销总监签名：</t>
+  </si>
+  <si>
+    <t>财务批准:</t>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
     <t>型号</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>条码</t>
-  </si>
-  <si>
-    <t>购买日期</t>
-  </si>
-  <si>
-    <t>￥</t>
-  </si>
-  <si>
-    <t>退货原因</t>
-  </si>
-  <si>
-    <t xml:space="preserve">情况说明（物流部）:    </t>
-  </si>
-  <si>
-    <t>营销总监签名：</t>
-  </si>
-  <si>
-    <t>财务批准:</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -159,8 +161,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -741,7 +743,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,13 +796,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,13 +820,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,10 +850,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,10 +871,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -884,10 +889,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -905,10 +910,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,10 +925,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,10 +940,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,19 +970,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -995,10 +1000,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,143 +1410,143 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M34"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="82" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="83" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="82"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="39" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="39" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="112" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="112"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="57"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="112"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="62"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="63"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
-      <c r="A7" s="113"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="67"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1">
       <c r="A8" s="29"/>
@@ -1559,112 +1564,112 @@
       <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="115" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="70"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="115"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="115"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="116"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="116"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="62"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="63"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1">
-      <c r="A14" s="117"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="72"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="73"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
@@ -1679,29 +1684,29 @@
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="75"/>
+      <c r="H15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="I15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="4" t="s">
+      <c r="J15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="L15" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="76"/>
+      <c r="M15" s="77"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5">
@@ -1711,14 +1716,14 @@
       <c r="C16" s="22"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="27"/>
       <c r="K16" s="28"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5">
@@ -1728,14 +1733,14 @@
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="28"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5">
@@ -1745,14 +1750,14 @@
       <c r="C18" s="6"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
       <c r="H18" s="13"/>
       <c r="I18" s="3"/>
       <c r="J18" s="19"/>
       <c r="K18" s="28"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5">
@@ -1762,14 +1767,14 @@
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="28"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5">
@@ -1779,14 +1784,14 @@
       <c r="C20" s="6"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
       <c r="H20" s="16"/>
       <c r="I20" s="3"/>
       <c r="J20" s="20"/>
       <c r="K20" s="28"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5">
@@ -1796,14 +1801,14 @@
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="28"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="5">
@@ -1813,14 +1818,14 @@
       <c r="C22" s="6"/>
       <c r="D22" s="17"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="21"/>
       <c r="K22" s="28"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5">
@@ -1830,187 +1835,187 @@
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="28"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="80"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="118" t="s">
+      <c r="A24" s="119" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="106"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="119"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="108"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="119"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="108"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="119"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="108"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1">
+      <c r="A28" s="120"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="111"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="90"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="91"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="93"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="91"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="93"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="107"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="118"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="107"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="118"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="107"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="118"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="107"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1">
-      <c r="A28" s="119"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="110"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="87" t="s">
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="89"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="92"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="90"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="92"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="99" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="100"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="101"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="102"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="103"/>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1">
-      <c r="A34" s="97"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="104"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="49">

--- a/public/templates/退货确认单.xlsx
+++ b/public/templates/退货确认单.xlsx
@@ -302,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -676,6 +676,32 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -795,6 +821,153 @@
     <xf numFmtId="178" fontId="17" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -819,179 +992,32 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1295,7 +1321,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="L15" sqref="L15:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1304,118 +1330,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="91"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="93" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="84" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="36"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="86"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="36"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="87" t="s">
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="62"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="72"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1">
-      <c r="A6" s="37"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="63" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="72"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="13"/>
@@ -1433,112 +1459,112 @@
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="87" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="74"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="39"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="39"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="40"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="40"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="62"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1">
-      <c r="A13" s="41"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="64"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="94"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
@@ -1556,10 +1582,10 @@
       <c r="E14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="66"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1572,10 +1598,10 @@
       <c r="K14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="67" t="s">
+      <c r="L14" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="68"/>
+      <c r="M14" s="98"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4">
@@ -1585,14 +1611,14 @@
       <c r="C15" s="25"/>
       <c r="D15" s="27"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="29"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="100"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4">
@@ -1602,14 +1628,14 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="100"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4">
@@ -1619,14 +1645,14 @@
       <c r="C17" s="24"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
       <c r="H17" s="30"/>
       <c r="I17" s="24"/>
       <c r="J17" s="31"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="100"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4">
@@ -1636,14 +1662,14 @@
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="100"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4">
@@ -1653,14 +1679,14 @@
       <c r="C19" s="24"/>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
       <c r="H19" s="30"/>
       <c r="I19" s="24"/>
       <c r="J19" s="34"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="100"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4">
@@ -1670,14 +1696,14 @@
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="100"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4">
@@ -1687,14 +1713,14 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="11"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="100"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4">
@@ -1704,104 +1730,70 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="26"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="100"/>
     </row>
     <row r="23" spans="1:13" ht="71.25" customHeight="1" thickBot="1">
       <c r="A23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="83"/>
     </row>
     <row r="24" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="48"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
     </row>
     <row r="25" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="49" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="51"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="F19:G19"/>
@@ -1818,6 +1810,40 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/退货确认单.xlsx
+++ b/public/templates/退货确认单.xlsx
@@ -256,15 +256,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -286,6 +277,15 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -797,28 +797,187 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,9 +986,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -860,163 +1016,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1321,7 +1321,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:M22"/>
+      <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1329,119 +1329,119 @@
     <col min="1" max="1" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37" t="s">
+    <row r="1" spans="1:13" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="41" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="41" t="s">
+      <c r="F2" s="95"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="85"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="67"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="85"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="69" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="72"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1">
-      <c r="A6" s="86"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="93" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="51"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="13"/>
@@ -1459,112 +1459,112 @@
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="74"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="88"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="88"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="48"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="89"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="89"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="72"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1">
-      <c r="A13" s="90"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="94"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
@@ -1582,10 +1582,10 @@
       <c r="E14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="95" t="s">
+      <c r="F14" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="96"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1598,10 +1598,10 @@
       <c r="K14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="97" t="s">
+      <c r="L14" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="98"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4">
@@ -1611,14 +1611,14 @@
       <c r="C15" s="25"/>
       <c r="D15" s="27"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="29"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="100"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4">
@@ -1628,14 +1628,14 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="100"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4">
@@ -1645,14 +1645,14 @@
       <c r="C17" s="24"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="30"/>
       <c r="I17" s="24"/>
       <c r="J17" s="31"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="100"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4">
@@ -1662,14 +1662,14 @@
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="100"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4">
@@ -1679,14 +1679,14 @@
       <c r="C19" s="24"/>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="30"/>
       <c r="I19" s="24"/>
       <c r="J19" s="34"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="100"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4">
@@ -1696,14 +1696,14 @@
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="100"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4">
@@ -1713,14 +1713,14 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="11"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="100"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4">
@@ -1730,70 +1730,104 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="26"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="100"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
     </row>
     <row r="23" spans="1:13" ht="71.25" customHeight="1" thickBot="1">
       <c r="A23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="83"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="68"/>
     </row>
     <row r="24" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="62"/>
     </row>
     <row r="25" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="78" t="s">
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="80"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="F19:G19"/>
@@ -1810,40 +1844,6 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/退货确认单.xlsx
+++ b/public/templates/退货确认单.xlsx
@@ -138,7 +138,7 @@
     <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +286,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -821,6 +829,150 @@
     <xf numFmtId="178" fontId="16" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -845,36 +997,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,131 +1018,14 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1321,7 +1329,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1330,118 +1338,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="100" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="93" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="83" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="36"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="86"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="36"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="87" t="s">
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="52"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="72"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1">
-      <c r="A6" s="37"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="53" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="72"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="13"/>
@@ -1459,112 +1467,112 @@
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="86" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="74"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="39"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="39"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="40"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="40"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="52"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1">
-      <c r="A13" s="41"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="54"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="93"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
@@ -1582,10 +1590,10 @@
       <c r="E14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="56"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1598,10 +1606,10 @@
       <c r="K14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="57" t="s">
+      <c r="L14" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="58"/>
+      <c r="M14" s="97"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4">
@@ -1611,14 +1619,14 @@
       <c r="C15" s="25"/>
       <c r="D15" s="27"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="29"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4">
@@ -1628,14 +1636,14 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4">
@@ -1645,14 +1653,14 @@
       <c r="C17" s="24"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
       <c r="H17" s="30"/>
       <c r="I17" s="24"/>
       <c r="J17" s="31"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="74"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4">
@@ -1662,14 +1670,14 @@
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="74"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4">
@@ -1679,14 +1687,14 @@
       <c r="C19" s="24"/>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="30"/>
       <c r="I19" s="24"/>
       <c r="J19" s="34"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4">
@@ -1696,14 +1704,14 @@
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="74"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4">
@@ -1713,14 +1721,14 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="11"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="74"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4">
@@ -1730,104 +1738,70 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="26"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="74"/>
     </row>
     <row r="23" spans="1:13" ht="71.25" customHeight="1" thickBot="1">
       <c r="A23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="68"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="100"/>
     </row>
     <row r="24" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="62"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
     </row>
     <row r="25" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="63" t="s">
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="65"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="F19:G19"/>
@@ -1844,6 +1818,40 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/退货确认单.xlsx
+++ b/public/templates/退货确认单.xlsx
@@ -118,27 +118,25 @@
   </si>
   <si>
     <t>规格</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>型号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>退货确认单</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,12 +228,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="MingLiU"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -266,13 +258,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -296,21 +281,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -712,8 +691,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -723,9 +713,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,13 +743,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -784,10 +770,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -802,40 +788,157 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -856,10 +959,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -868,172 +971,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 3" xfId="1"/>
     <cellStyle name="常规 4" xfId="3"/>
-    <cellStyle name="常规_ABK2011年报价" xfId="5"/>
     <cellStyle name="样式 1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1326,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C4" sqref="C4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1338,247 +1296,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="41" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="41" t="s">
+      <c r="F2" s="81"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="85"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="84"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="67"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="90"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="84"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="69" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1">
-      <c r="A6" s="85"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="92" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="51"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="63"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="65"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="87"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="49"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="87"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="88"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="88"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="72"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="53"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1">
-      <c r="A13" s="89"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="93"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1587,227 +1545,128 @@
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="94" t="s">
+      <c r="F14" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="95"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="96" t="s">
+      <c r="L14" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="97"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="74"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="4">
-        <v>2</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="74"/>
+    <row r="16" spans="1:13" ht="71.25" customHeight="1" thickBot="1">
+      <c r="A16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="37"/>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+    <row r="17" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="30"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="74"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="4">
-        <v>4</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="74"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="4">
-        <v>5</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="74"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="4">
-        <v>6</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="74"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="4">
-        <v>7</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="74"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="4">
-        <v>8</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="74"/>
-    </row>
-    <row r="23" spans="1:13" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A23" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="100"/>
-    </row>
-    <row r="24" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A24" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="79"/>
-    </row>
-    <row r="25" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A25" s="80" t="s">
+    <row r="18" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A18" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="80" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="82"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="36">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="B16:M16"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A13"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="C10:M10"/>
@@ -1818,42 +1677,8 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1867,7 +1692,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1880,7 +1705,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>